--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail10 Features.xlsx
@@ -4699,7 +4699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4710,29 +4710,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4753,115 +4751,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4878,72 +4866,66 @@
         <v>1.614899981711358e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.9121820813857352</v>
+        <v>8.385058932691608e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.284527808323713</v>
+        <v>1.956614870141532e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.385058932691608e-07</v>
+        <v>-0.08659513986392671</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.956614870141532e-06</v>
+        <v>0.1553285732882193</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08659513986392671</v>
+        <v>0.03156036839686929</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1553285732882193</v>
+        <v>1.886786330578103</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03156036839686929</v>
+        <v>2.204034949740483</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.884522857798488</v>
+        <v>3.853034952939118</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.204034949740483</v>
+        <v>2.518676382309725e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.853034952939118</v>
+        <v>537528631.4186534</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.518676382309725e-16</v>
+        <v>2.22534111951702e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>537528631.4186534</v>
+        <v>72.77388724151754</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.22534111951702e-07</v>
+        <v>0.0001359202700232821</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>72.77388724151754</v>
+        <v>10.56284522791116</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001359202700232821</v>
+        <v>1.232845041957588</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.56284522791116</v>
+        <v>0.01516512733754934</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.232845041957588</v>
+        <v>3.145189244304488</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01516512733754934</v>
+        <v>0.9616452046147725</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.145189244304488</v>
+        <v>1.435041690876385</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9616452046147725</v>
+        <v>35</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.435041690876385</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3987556035140845</v>
       </c>
     </row>
@@ -4958,72 +4940,66 @@
         <v>1.474352138750047e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5423261630577096</v>
+        <v>7.023478200313005e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.1527166769624513</v>
+        <v>1.94383443949954e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.023478200313005e-07</v>
+        <v>-0.07944164149513601</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.94383443949954e-06</v>
+        <v>0.1268262628734311</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07944164149513601</v>
+        <v>0.02235284785375414</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1268262628734311</v>
+        <v>1.884831967836207</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02235284785375414</v>
+        <v>2.223307178156141</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.881665998475337</v>
+        <v>3.883451597889798</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.223307178156141</v>
+        <v>2.479376462898845e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.883451597889798</v>
+        <v>542384782.5370225</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.479376462898845e-16</v>
+        <v>2.210829376963502e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>542384782.5370225</v>
+        <v>72.93860728474878</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.210829376963502e-07</v>
+        <v>0.0001501227688085233</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>72.93860728474878</v>
+        <v>8.807846989264316</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001501227688085233</v>
+        <v>1.592280186499807</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.807846989264316</v>
+        <v>0.01164624946726863</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.592280186499807</v>
+        <v>3.222501272649407</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01164624946726863</v>
+        <v>0.9609237592607206</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.222501272649407</v>
+        <v>1.437938564077919</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9609237592607206</v>
+        <v>50</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.437938564077919</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3634098203119707</v>
       </c>
     </row>
@@ -5038,72 +5014,66 @@
         <v>1.385284682137108e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2981368689289665</v>
+        <v>6.034746606465189e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.496520173528006</v>
+        <v>1.932996717325222e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.034746606465189e-07</v>
+        <v>-0.07263939836134507</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.932996717325222e-06</v>
+        <v>0.1031816263732403</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.07263939836134507</v>
+        <v>0.0158972250737007</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1031816263732403</v>
+        <v>1.886574475490406</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0158972250737007</v>
+        <v>2.283460735870947</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.882238355603497</v>
+        <v>3.883366799991838</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.283460735870947</v>
+        <v>2.47948474430445e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.883366799991838</v>
+        <v>542219846.7855756</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.47948474430445e-16</v>
+        <v>2.211871735355452e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>542219846.7855756</v>
+        <v>72.89743719838155</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.211871735355452e-07</v>
+        <v>0.000147403481219712</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>72.89743719838155</v>
+        <v>8.237701899574395</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000147403481219712</v>
+        <v>1.481171932875835</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.237701899574395</v>
+        <v>0.01000276081785221</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.481171932875835</v>
+        <v>3.129150605256791</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01000276081785221</v>
+        <v>0.9611716898052171</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.129150605256791</v>
+        <v>1.447203722150937</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9611716898052171</v>
+        <v>50</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.447203722150937</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3108611056658384</v>
       </c>
     </row>
@@ -5118,72 +5088,66 @@
         <v>1.329229744576986e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1564167099077893</v>
+        <v>5.323718790564589e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8360163228514983</v>
+        <v>1.923565346452908e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.323718790564589e-07</v>
+        <v>-0.06677554561368833</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.923565346452908e-06</v>
+        <v>0.08649711379960821</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06677554561368833</v>
+        <v>0.0119268470058852</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.08649711379960821</v>
+        <v>1.889885712900132</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0119268470058852</v>
+        <v>2.227468280465014</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.88574329943786</v>
+        <v>3.86876810093989</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.227468280465014</v>
+        <v>2.498232596514083e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.86876810093989</v>
+        <v>531937918.5823774</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.498232596514083e-16</v>
+        <v>2.250814771068105e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>531937918.5823774</v>
+        <v>70.68947721985504</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.250814771068105e-07</v>
+        <v>0.0001394806596868936</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>70.68947721985504</v>
+        <v>9.297571305750505</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001394806596868936</v>
+        <v>1.203092546074944</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.297571305750505</v>
+        <v>0.01205738221975846</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.203092546074944</v>
+        <v>3.006607967462445</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01205738221975846</v>
+        <v>0.960268222857259</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.006607967462445</v>
+        <v>1.434299178863393</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.960268222857259</v>
+        <v>48</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.434299178863393</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3069190676661371</v>
       </c>
     </row>
@@ -5198,72 +5162,66 @@
         <v>1.293102001131299e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.08260503057951972</v>
+        <v>4.839294921920408e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.012596191055524</v>
+        <v>1.915125341809152e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.839294921920408e-07</v>
+        <v>-0.06238732891622769</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.915125341809152e-06</v>
+        <v>0.07766008066967492</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06238732891622769</v>
+        <v>0.009917142779068239</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.07766008066967492</v>
+        <v>1.88822523683071</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.009917142779068239</v>
+        <v>2.260862850183318</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.885986373653221</v>
+        <v>3.873903345986922</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.260862850183318</v>
+        <v>2.491613673769167e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.873903345986922</v>
+        <v>526296414.9831153</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.491613673769167e-16</v>
+        <v>2.274038869691361e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>526296414.9831153</v>
+        <v>69.01468800310677</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.274038869691361e-07</v>
+        <v>0.0001358567940033577</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>69.01468800310677</v>
+        <v>10.48820394005599</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001358567940033577</v>
+        <v>1.126440864684291</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.48820394005599</v>
+        <v>0.01494457637033644</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.126440864684291</v>
+        <v>2.934699223496831</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01494457637033644</v>
+        <v>0.9622194133815264</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.934699223496831</v>
+        <v>1.437134521610569</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9622194133815264</v>
+        <v>48</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.437134521610569</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3309353733634249</v>
       </c>
     </row>
@@ -5278,72 +5236,66 @@
         <v>1.267681088407151e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.04582180736450621</v>
+        <v>4.548683696026313e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.118556872482497</v>
+        <v>1.90732675449639e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.548683696026313e-07</v>
+        <v>-0.05980924304813655</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.90732675449639e-06</v>
+        <v>0.07519478584744115</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05980924304813655</v>
+        <v>0.009229564444533997</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07519478584744115</v>
+        <v>1.881310605682444</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009229564444533997</v>
+        <v>2.10534901672244</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.882535374581306</v>
+        <v>3.905813416455924</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.10534901672244</v>
+        <v>2.451067556798946e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.905813416455924</v>
+        <v>519334544.0494367</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.451067556798946e-16</v>
+        <v>2.296087553306376e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>519334544.0494367</v>
+        <v>66.10734321781163</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.296087553306376e-07</v>
+        <v>0.0001336045318781185</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>66.10734321781163</v>
+        <v>11.33309144636882</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001336045318781185</v>
+        <v>1.132487135912659</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.33309144636882</v>
+        <v>0.01716002735708312</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.132487135912659</v>
+        <v>3.072655167099956</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01716002735708312</v>
+        <v>0.9622410386921691</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.072655167099956</v>
+        <v>1.458644469877572</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9622410386921691</v>
+        <v>65</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.458644469877572</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3899235890013815</v>
       </c>
     </row>
@@ -5358,72 +5310,66 @@
         <v>1.246641646711817e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.02364589486191487</v>
+        <v>4.411270195641093e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.204581805713091</v>
+        <v>1.899875774700688e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.411270195641093e-07</v>
+        <v>-0.05897641098757127</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.899875774700688e-06</v>
+        <v>0.07580671487301113</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05897641098757127</v>
+        <v>0.009224565068707974</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.07580671487301113</v>
+        <v>1.881956193251562</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.009224565068707974</v>
+        <v>1.99322422103348</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.884401239088282</v>
+        <v>4.1411114317966</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.99322422103348</v>
+        <v>2.180441470426925e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.1411114317966</v>
+        <v>576165015.5220274</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.180441470426925e-16</v>
+        <v>2.061390735383101e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>576165015.5220274</v>
+        <v>72.38327059700434</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.061390735383101e-07</v>
+        <v>0.0001549190807092013</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>72.38327059700434</v>
+        <v>10.20990647528299</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001549190807092013</v>
+        <v>1.443432192348292</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.20990647528299</v>
+        <v>0.0161491042821689</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.443432192348292</v>
+        <v>3.254317922172267</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0161491042821689</v>
+        <v>0.9623281187429413</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.254317922172267</v>
+        <v>1.460200539406979</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9623281187429413</v>
+        <v>74</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.460200539406979</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.4442922668081172</v>
       </c>
     </row>
@@ -5438,72 +5384,66 @@
         <v>1.226676491441014e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.004278452731983367</v>
+        <v>4.310000104117252e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.294303772445755</v>
+        <v>1.892602741079788e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.310000104117252e-07</v>
+        <v>-0.05856123859501375</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.892602741079788e-06</v>
+        <v>0.07688251444409909</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05856123859501375</v>
+        <v>0.0093397304941792</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.07688251444409909</v>
+        <v>1.879024953830802</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0093397304941792</v>
+        <v>1.902329145688304</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.879763438803618</v>
+        <v>4.789555103234032</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.902329145688304</v>
+        <v>1.630001180893961e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.789555103234032</v>
+        <v>769786306.2819059</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.630001180893961e-16</v>
+        <v>1.541439405782257e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>769786306.2819059</v>
+        <v>96.58913602262633</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.541439405782257e-07</v>
+        <v>0.000168190358746808</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>96.58913602262633</v>
+        <v>8.44758232750714</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000168190358746808</v>
+        <v>1.799586122416432</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.44758232750714</v>
+        <v>0.01200234103996918</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.799586122416432</v>
+        <v>3.294641421366158</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01200234103996918</v>
+        <v>0.9620638213580425</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.294641421366158</v>
+        <v>1.463580969714428</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9620638213580425</v>
+        <v>74</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.463580969714428</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.5265468543213724</v>
       </c>
     </row>
@@ -5880,7 +5820,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.328456371117664</v>
+        <v>1.352912415988263</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.447209653408216</v>
@@ -5969,7 +5909,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.322698174306587</v>
+        <v>1.347854647837248</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.184109951382883</v>
@@ -6058,7 +5998,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.350158283983473</v>
+        <v>1.380007730202016</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.126094966080808</v>
@@ -6147,7 +6087,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.378870635539682</v>
+        <v>1.408311241731093</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.29046312389801</v>
@@ -6236,7 +6176,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.430368771588151</v>
+        <v>1.463205898491316</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.175112475637972</v>
@@ -6325,7 +6265,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.462708021402187</v>
+        <v>1.498575845603625</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.304395959735105</v>
@@ -6414,7 +6354,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.447518982101572</v>
+        <v>1.487411684234382</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.375971085833201</v>
@@ -6503,7 +6443,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.508688658446904</v>
+        <v>1.551878919777303</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.40915410405277</v>
@@ -6592,7 +6532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.495749740929346</v>
+        <v>1.53886486940901</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.192193542006967</v>
@@ -6681,7 +6621,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.49954198742042</v>
+        <v>1.543782442965659</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.366446183701507</v>
@@ -6770,7 +6710,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.530914479551477</v>
+        <v>1.575154217821741</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.372148856929477</v>
@@ -6859,7 +6799,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.502211177475297</v>
+        <v>1.545293044563598</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.316269327027933</v>
@@ -6948,7 +6888,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.50006744824527</v>
+        <v>1.544330456594401</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.399738109109102</v>
@@ -7037,7 +6977,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.500930893683436</v>
+        <v>1.543398677488028</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.220083337164996</v>
@@ -7126,7 +7066,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.531653658195021</v>
+        <v>1.576692088874634</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.389947662727372</v>
@@ -7215,7 +7155,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.52081578949936</v>
+        <v>1.561001537960618</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.219030302220994</v>
@@ -7304,7 +7244,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.50224908828076</v>
+        <v>1.54880998801058</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.236736845451771</v>
@@ -7393,7 +7333,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.472864527490719</v>
+        <v>1.517834775362112</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.478682163992561</v>
@@ -7482,7 +7422,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.453670952333173</v>
+        <v>1.490389899024722</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.418474676491566</v>
@@ -7571,7 +7511,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.39365195723733</v>
+        <v>1.433284667744707</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.405171392149092</v>
@@ -7660,7 +7600,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.36666129276906</v>
+        <v>1.405030750673124</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.56536700790996</v>
@@ -7749,7 +7689,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.371892591060428</v>
+        <v>1.410338335061565</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.544308058849214</v>
@@ -7838,7 +7778,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.35017376475846</v>
+        <v>1.386232213999193</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.496049793897326</v>
@@ -7927,7 +7867,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.351057907221644</v>
+        <v>1.387265318757056</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.548418006690889</v>
@@ -8016,7 +7956,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.338417793955232</v>
+        <v>1.373648881887038</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.520480917229676</v>
@@ -8105,7 +8045,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.31811032950142</v>
+        <v>1.350910137278642</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.552919264547635</v>
@@ -8194,7 +8134,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.319749342723408</v>
+        <v>1.352347545478732</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.475102961702641</v>
@@ -8283,7 +8223,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.312275794074952</v>
+        <v>1.344832538497284</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.446660667867143</v>
@@ -8372,7 +8312,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.299579113553871</v>
+        <v>1.33220040541297</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.489138147617736</v>
@@ -8461,7 +8401,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.279068697826407</v>
+        <v>1.30519680186177</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.597908053519284</v>
@@ -8550,7 +8490,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.300497414325419</v>
+        <v>1.329040001012984</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.711076834113608</v>
@@ -8639,7 +8579,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.303064625136551</v>
+        <v>1.32880789462194</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.484646637505342</v>
@@ -8728,7 +8668,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.288098548531526</v>
+        <v>1.315755214650535</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.447507872438831</v>
@@ -8817,7 +8757,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.289599397626376</v>
+        <v>1.320971470581399</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.760461155551922</v>
@@ -8906,7 +8846,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.300084268428009</v>
+        <v>1.335672375117599</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.459021583342234</v>
@@ -8995,7 +8935,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.322367635498846</v>
+        <v>1.357577725947018</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.277383080473832</v>
@@ -9084,7 +9024,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.335882702352926</v>
+        <v>1.375262445763258</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.552046133980585</v>
@@ -9173,7 +9113,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.358622720074399</v>
+        <v>1.392603301582976</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.509332665019262</v>
@@ -9262,7 +9202,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.352339395903949</v>
+        <v>1.387387176470816</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.393021618129521</v>
@@ -9351,7 +9291,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.369249149899737</v>
+        <v>1.409678480849466</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.558263561836783</v>
@@ -9440,7 +9380,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.374739277664674</v>
+        <v>1.41410650401058</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.635512011684068</v>
@@ -9529,7 +9469,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.389371388962815</v>
+        <v>1.431139867100854</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.261723360048661</v>
@@ -9618,7 +9558,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.403633828113273</v>
+        <v>1.445924855541598</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.376433018699196</v>
@@ -9707,7 +9647,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.410845340772668</v>
+        <v>1.452202542369826</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.422389808305558</v>
@@ -9796,7 +9736,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.451264715531868</v>
+        <v>1.501869404308719</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.605933521507949</v>
@@ -9885,7 +9825,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.429872737129418</v>
+        <v>1.477261388152155</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.321999342499233</v>
@@ -9974,7 +9914,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.447057998555708</v>
+        <v>1.493579457925841</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.296641506739098</v>
@@ -10063,7 +10003,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.445749954775871</v>
+        <v>1.494181917775644</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.245596786729032</v>
@@ -10152,7 +10092,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.456038659479465</v>
+        <v>1.501612384443194</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.207977385527214</v>
@@ -10241,7 +10181,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.464148033523929</v>
+        <v>1.509503924938241</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.407906612052825</v>
@@ -10330,7 +10270,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.464035129760341</v>
+        <v>1.509938029082822</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.387830845651035</v>
@@ -10419,7 +10359,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.409080767219098</v>
+        <v>1.452136576215536</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.379632284175828</v>
@@ -10508,7 +10448,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.419293903967387</v>
+        <v>1.466793560741009</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.172092590139977</v>
@@ -10794,7 +10734,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.27138586871858</v>
+        <v>1.270957208386088</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.291091728617436</v>
@@ -10883,7 +10823,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.271323508504051</v>
+        <v>1.272159836659573</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.100975756143594</v>
@@ -10972,7 +10912,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.274023049111706</v>
+        <v>1.273825507672555</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.213178528134715</v>
@@ -11061,7 +11001,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.277925573900436</v>
+        <v>1.278474751798803</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.136611382849058</v>
@@ -11150,7 +11090,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.321224511868515</v>
+        <v>1.31981708733273</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.066502588050194</v>
@@ -11239,7 +11179,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.317951602189414</v>
+        <v>1.321037972107693</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.205602820031882</v>
@@ -11328,7 +11268,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.317837384066218</v>
+        <v>1.322830361826966</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.191822636877057</v>
@@ -11417,7 +11357,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.321832734441547</v>
+        <v>1.322571373754282</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.238482887572709</v>
@@ -11506,7 +11446,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.323695940243735</v>
+        <v>1.332461651822434</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.083948759581587</v>
@@ -11595,7 +11535,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.327681184017577</v>
+        <v>1.339949077600734</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.262515413219327</v>
@@ -11684,7 +11624,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.345488301874521</v>
+        <v>1.358323461932868</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.16156380912393</v>
@@ -11773,7 +11713,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.351411368578692</v>
+        <v>1.362260431155499</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.186938872211405</v>
@@ -11862,7 +11802,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.354929187911675</v>
+        <v>1.367305983852987</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.192056345267489</v>
@@ -11951,7 +11891,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.375791177830617</v>
+        <v>1.384459801964828</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.228191783093918</v>
@@ -12040,7 +11980,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.376653078031455</v>
+        <v>1.382320144677069</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.166248955582462</v>
@@ -12129,7 +12069,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.391362970516578</v>
+        <v>1.396013196283605</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.147019395010424</v>
@@ -12218,7 +12158,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.387198954794583</v>
+        <v>1.391831916674837</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.244960617004149</v>
@@ -12307,7 +12247,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.401272234338127</v>
+        <v>1.404754219598269</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.036191510219031</v>
@@ -12396,7 +12336,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.391401038691198</v>
+        <v>1.396293670507429</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.206981239681171</v>
@@ -12485,7 +12425,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.370301742255061</v>
+        <v>1.377845063831593</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.212170746568876</v>
@@ -12574,7 +12514,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.360619847735453</v>
+        <v>1.368241084100003</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.193857075221524</v>
@@ -12663,7 +12603,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.36352372432186</v>
+        <v>1.369093430045189</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.269587479434553</v>
@@ -12752,7 +12692,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.373867239636331</v>
+        <v>1.379528290678488</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.328150709397451</v>
@@ -12841,7 +12781,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.367763598045015</v>
+        <v>1.372481445494032</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.183836913826771</v>
@@ -12930,7 +12870,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.358559539226969</v>
+        <v>1.364007475151215</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.123420312815307</v>
@@ -13019,7 +12959,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.344143919734621</v>
+        <v>1.352003658170972</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.149620142625476</v>
@@ -13108,7 +13048,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.352051368406439</v>
+        <v>1.36243313632691</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.110486810631022</v>
@@ -13197,7 +13137,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.328675826921931</v>
+        <v>1.333114638835751</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.138618386630737</v>
@@ -13286,7 +13226,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.307646662379313</v>
+        <v>1.321275428774669</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.158167200132507</v>
@@ -13375,7 +13315,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.307328664878941</v>
+        <v>1.317928652236386</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.174495376579798</v>
@@ -13464,7 +13404,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.314120592027233</v>
+        <v>1.324116140982454</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.113193101037272</v>
@@ -13553,7 +13493,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.289423333297326</v>
+        <v>1.298325530434356</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.168248943429089</v>
@@ -13642,7 +13582,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.285975508893883</v>
+        <v>1.294771479008396</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.143404598673374</v>
@@ -13731,7 +13671,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.279659347051844</v>
+        <v>1.2889370842601</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.180408621719232</v>
@@ -13820,7 +13760,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.281220426325306</v>
+        <v>1.290310167716911</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.163828518432266</v>
@@ -13909,7 +13849,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.269307997456948</v>
+        <v>1.278102363521354</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.115867739363814</v>
@@ -13998,7 +13938,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.272721290092939</v>
+        <v>1.285169390556794</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.193577950042044</v>
@@ -14087,7 +14027,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.289981840568233</v>
+        <v>1.298577435101339</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.079706318462288</v>
@@ -14176,7 +14116,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.27709491781657</v>
+        <v>1.286570535164902</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.028307514394255</v>
@@ -14265,7 +14205,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.277740036766335</v>
+        <v>1.285619723618425</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.098160269382192</v>
@@ -14354,7 +14294,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.278435221218118</v>
+        <v>1.281851156682503</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.135095130629102</v>
@@ -14443,7 +14383,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.267296759923205</v>
+        <v>1.268377828455903</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.06360412996264</v>
@@ -14532,7 +14472,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.289292144791703</v>
+        <v>1.289421710029022</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.098831048362979</v>
@@ -14621,7 +14561,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.296108077097897</v>
+        <v>1.292509691062841</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.044967223385422</v>
@@ -14710,7 +14650,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.289970978891944</v>
+        <v>1.29450466290337</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.147807807683967</v>
@@ -14799,7 +14739,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.29062151094813</v>
+        <v>1.293696695251932</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.009436283610214</v>
@@ -14888,7 +14828,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.325708090755706</v>
+        <v>1.329738618313145</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.069661449660158</v>
@@ -14977,7 +14917,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.31766066849834</v>
+        <v>1.324052363959094</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.033967634817897</v>
@@ -15066,7 +15006,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.322927445127762</v>
+        <v>1.328164941978171</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.013377342457561</v>
@@ -15155,7 +15095,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.344636275854765</v>
+        <v>1.349187618687506</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.056487579864278</v>
@@ -15244,7 +15184,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.324447242716812</v>
+        <v>1.330810068668244</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.096032312995892</v>
@@ -15333,7 +15273,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.301537836544483</v>
+        <v>1.305218866206762</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.1548232801484</v>
@@ -15422,7 +15362,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.306020598672727</v>
+        <v>1.312414761146584</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.087587798375825</v>
@@ -15708,7 +15648,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.568192928504554</v>
+        <v>1.55109024141234</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.00343831089708</v>
@@ -15797,7 +15737,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.572743133518522</v>
+        <v>1.553829893582486</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.915905850196157</v>
@@ -15886,7 +15826,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.583776343769287</v>
+        <v>1.564159094223928</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.753706986619783</v>
@@ -15975,7 +15915,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.583385530323212</v>
+        <v>1.56498276923711</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.901001373586617</v>
@@ -16064,7 +16004,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.589917815788387</v>
+        <v>1.569369102584721</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.857579413189471</v>
@@ -16153,7 +16093,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.593530162978312</v>
+        <v>1.575444142068968</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.092068605422624</v>
@@ -16242,7 +16182,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.595164427199467</v>
+        <v>1.579872994444667</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.88202796320805</v>
@@ -16331,7 +16271,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.615005385309899</v>
+        <v>1.602354219499217</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.834096744855457</v>
@@ -16420,7 +16360,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.60719861106652</v>
+        <v>1.594501472633205</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.864755263119436</v>
@@ -16509,7 +16449,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.600250763871786</v>
+        <v>1.588868022859877</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.078179409451339</v>
@@ -16598,7 +16538,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.608685274724578</v>
+        <v>1.598281488970161</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.936878073470619</v>
@@ -16687,7 +16627,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.599662436345356</v>
+        <v>1.594157955521178</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.012401657400877</v>
@@ -16776,7 +16716,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.592966012416408</v>
+        <v>1.588522074142822</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.803959377360439</v>
@@ -16865,7 +16805,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.601598519200181</v>
+        <v>1.593530942377744</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.807306353560036</v>
@@ -16954,7 +16894,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.60758552806267</v>
+        <v>1.603767700752533</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.757598166042929</v>
@@ -17043,7 +16983,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.60932859157491</v>
+        <v>1.604523787115534</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.772144228733314</v>
@@ -17132,7 +17072,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.598548933058533</v>
+        <v>1.591966672663125</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.925247215121048</v>
@@ -17221,7 +17161,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.586481453817532</v>
+        <v>1.584211464676546</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.117714031011296</v>
@@ -17310,7 +17250,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.586442663003831</v>
+        <v>1.579163666532309</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.077428201763237</v>
@@ -17399,7 +17339,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.573068140901266</v>
+        <v>1.569423464202481</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.088979860554771</v>
@@ -17488,7 +17428,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.56297466361138</v>
+        <v>1.560601315822125</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.102092907209003</v>
@@ -17577,7 +17517,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.563496331098895</v>
+        <v>1.561876438076294</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.013693309052638</v>
@@ -17666,7 +17606,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.56470108592984</v>
+        <v>1.560494852306799</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.031659556717531</v>
@@ -17755,7 +17695,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.558309838129214</v>
+        <v>1.557922803113598</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.931572634317773</v>
@@ -17844,7 +17784,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.554638744047124</v>
+        <v>1.555510222605862</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.043873129330056</v>
@@ -17933,7 +17873,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.54966232293401</v>
+        <v>1.553334579531334</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.061306823957134</v>
@@ -18022,7 +17962,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.558773009987044</v>
+        <v>1.559417496699524</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.991963204308269</v>
@@ -18111,7 +18051,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.557132738522354</v>
+        <v>1.556494310614231</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.185308072603271</v>
@@ -18200,7 +18140,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.549999831183689</v>
+        <v>1.551066635712502</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.193011460549751</v>
@@ -18289,7 +18229,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.543118594552244</v>
+        <v>1.540457612305846</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.155332425909215</v>
@@ -18378,7 +18318,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.554628044931725</v>
+        <v>1.552787739069723</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.224524340127585</v>
@@ -18467,7 +18407,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.553285140616052</v>
+        <v>1.553840796413931</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.242943028436394</v>
@@ -18556,7 +18496,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.551748556864394</v>
+        <v>1.552683344040279</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.012163001579108</v>
@@ -18645,7 +18585,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.554158935263783</v>
+        <v>1.551305471188339</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.094714877709856</v>
@@ -18734,7 +18674,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.560347655582878</v>
+        <v>1.558695345075676</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.170202893556465</v>
@@ -18823,7 +18763,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.567922153902796</v>
+        <v>1.563556827509007</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.902434232104228</v>
@@ -18912,7 +18852,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.57843751492187</v>
+        <v>1.571084899077743</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.123925361451541</v>
@@ -19001,7 +18941,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.580858965476401</v>
+        <v>1.571241474201368</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.317038530571301</v>
@@ -19090,7 +19030,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.599499015458753</v>
+        <v>1.586379523470386</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.048537464085898</v>
@@ -19179,7 +19119,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.598940238201247</v>
+        <v>1.587944782641582</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.319511434726348</v>
@@ -19268,7 +19208,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.592638346667281</v>
+        <v>1.58163744840841</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.410044336248846</v>
@@ -19357,7 +19297,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.589856100088052</v>
+        <v>1.58230874086626</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.275943649110135</v>
@@ -19446,7 +19386,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.607689745594289</v>
+        <v>1.594681294332113</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.058182708353563</v>
@@ -19535,7 +19475,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.611319883603372</v>
+        <v>1.597907117462482</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.825886007720713</v>
@@ -19624,7 +19564,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.607203193528818</v>
+        <v>1.599601383532795</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.184649812924091</v>
@@ -19713,7 +19653,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.578143338521745</v>
+        <v>1.570760528582612</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.10124207453973</v>
@@ -19802,7 +19742,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.58201923438859</v>
+        <v>1.570223471544113</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.714620860120059</v>
@@ -19891,7 +19831,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.563463933009058</v>
+        <v>1.552951085067933</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.102889832324928</v>
@@ -19980,7 +19920,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.550230306289503</v>
+        <v>1.543365055260645</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.566162766678945</v>
@@ -20069,7 +20009,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.541498452447392</v>
+        <v>1.536278341859197</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.709740293129332</v>
@@ -20158,7 +20098,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.538455970036766</v>
+        <v>1.530216718227985</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.837833371075707</v>
@@ -20247,7 +20187,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.515987412683253</v>
+        <v>1.513314395714329</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.864680761342136</v>
@@ -20336,7 +20276,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.525585011618082</v>
+        <v>1.523381546839806</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.686448910249051</v>
@@ -20622,7 +20562,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.610416850676037</v>
+        <v>1.567447668910632</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.01960185956655</v>
@@ -20711,7 +20651,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.609909434133993</v>
+        <v>1.564798148792961</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.128803302745583</v>
@@ -20800,7 +20740,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.612507967732424</v>
+        <v>1.571646202072084</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.818373810530027</v>
@@ -20889,7 +20829,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.60786589759688</v>
+        <v>1.568553648466001</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.88737689934271</v>
@@ -20978,7 +20918,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.623962042157247</v>
+        <v>1.576331339319156</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.122622994771682</v>
@@ -21067,7 +21007,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.629448905683606</v>
+        <v>1.58033963380725</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.201311470554679</v>
@@ -21156,7 +21096,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.629011355138186</v>
+        <v>1.577865325201398</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.932754373391183</v>
@@ -21245,7 +21185,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.624410440900785</v>
+        <v>1.574098328090429</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.011872721833971</v>
@@ -21334,7 +21274,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.622927378871121</v>
+        <v>1.581986074081821</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.192357483162612</v>
@@ -21423,7 +21363,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.638204732496602</v>
+        <v>1.594089396995734</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.886059431692166</v>
@@ -21512,7 +21452,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.642885047707316</v>
+        <v>1.599231776961912</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.919291133289428</v>
@@ -21601,7 +21541,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.64777035280467</v>
+        <v>1.600587019768687</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.873882951177768</v>
@@ -21690,7 +21630,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.650962481262036</v>
+        <v>1.60123820786101</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.692645349080094</v>
@@ -21779,7 +21719,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.647098503982564</v>
+        <v>1.602385357899889</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.721647606491801</v>
@@ -21868,7 +21808,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.651003407335441</v>
+        <v>1.611321719525056</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.886229418748071</v>
@@ -21957,7 +21897,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.656883774884988</v>
+        <v>1.616315429709507</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.905069085329252</v>
@@ -22046,7 +21986,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.651376290462951</v>
+        <v>1.602003293374343</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.894958860713361</v>
@@ -22135,7 +22075,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.648997979948872</v>
+        <v>1.600656060176494</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.93945332629401</v>
@@ -22224,7 +22164,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.655058573927981</v>
+        <v>1.598335800127355</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.926340395444009</v>
@@ -22313,7 +22253,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.644318328001905</v>
+        <v>1.591282133967937</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.930978522806341</v>
@@ -22402,7 +22342,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.644825961392859</v>
+        <v>1.593583857327172</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.685610562136262</v>
@@ -22491,7 +22431,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.646173988550803</v>
+        <v>1.594453038626819</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.769626088202074</v>
@@ -22580,7 +22520,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.640975509103008</v>
+        <v>1.586999524430877</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.073129730880598</v>
@@ -22669,7 +22609,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.626680294498347</v>
+        <v>1.575784051337177</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.922130919375983</v>
@@ -22758,7 +22698,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.612113378562632</v>
+        <v>1.5660459614399</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.811204332774935</v>
@@ -22847,7 +22787,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.618506324471106</v>
+        <v>1.57264344394035</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.863550042416731</v>
@@ -22936,7 +22876,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.630791641855922</v>
+        <v>1.585168596848262</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.884481033311628</v>
@@ -23025,7 +22965,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.630127213896844</v>
+        <v>1.585594204085739</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.33618752753928</v>
@@ -23114,7 +23054,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.628818859880943</v>
+        <v>1.586953473900842</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.081583550990426</v>
@@ -23203,7 +23143,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.615596010468204</v>
+        <v>1.565530089256553</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.984226880020548</v>
@@ -23292,7 +23232,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.619506327780214</v>
+        <v>1.573093723839438</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.746832055450517</v>
@@ -23381,7 +23321,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.613328044089487</v>
+        <v>1.570011895643878</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.372727521097016</v>
@@ -23470,7 +23410,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.612373773400489</v>
+        <v>1.569457083867231</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.921672841262775</v>
@@ -23559,7 +23499,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.616881550357688</v>
+        <v>1.570687502240119</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.279382462649758</v>
@@ -23648,7 +23588,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.613056955429823</v>
+        <v>1.577615971295528</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.168235388138241</v>
@@ -23737,7 +23677,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.597800544849945</v>
+        <v>1.565303937012633</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.837863167754798</v>
@@ -23826,7 +23766,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.599603419656722</v>
+        <v>1.571542357502127</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.204793369521599</v>
@@ -23915,7 +23855,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.609282767468132</v>
+        <v>1.579452859103978</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.310659351534257</v>
@@ -24004,7 +23944,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.617824911608052</v>
+        <v>1.587247362458915</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.72039798808779</v>
@@ -24093,7 +24033,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.623820576154751</v>
+        <v>1.592259832384762</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.163323762329577</v>
@@ -24182,7 +24122,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.625883320603576</v>
+        <v>1.590405726013285</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.001594777628743</v>
@@ -24271,7 +24211,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.614557313121427</v>
+        <v>1.585446205281537</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.016740204714799</v>
@@ -24360,7 +24300,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.624821718217381</v>
+        <v>1.595062401428557</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.862929432457036</v>
@@ -24449,7 +24389,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.62497679521169</v>
+        <v>1.590502484914372</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.821805932097809</v>
@@ -24538,7 +24478,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.633016960155021</v>
+        <v>1.605886521550179</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.110970611314729</v>
@@ -24627,7 +24567,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.633645914033051</v>
+        <v>1.604114904401201</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.244392256019045</v>
@@ -24716,7 +24656,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.635229434124993</v>
+        <v>1.610434690745532</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.023165663153513</v>
@@ -24805,7 +24745,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.629387320716165</v>
+        <v>1.605350502327082</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.205390419929625</v>
@@ -24894,7 +24834,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.62679532914707</v>
+        <v>1.600007413500052</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.846086658050051</v>
@@ -24983,7 +24923,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.643797529008266</v>
+        <v>1.611965115918677</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.091913717304681</v>
@@ -25072,7 +25012,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.649679755099874</v>
+        <v>1.61625178439679</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.123403249428059</v>
@@ -25161,7 +25101,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.640259468315364</v>
+        <v>1.603436700311035</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.19019335851974</v>
@@ -25250,7 +25190,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.629289721307385</v>
+        <v>1.589919367732339</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.981317635985725</v>
@@ -25536,7 +25476,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.40914103658032</v>
+        <v>1.396101292483146</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.488752715112792</v>
@@ -25625,7 +25565,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.406560105223783</v>
+        <v>1.392709588459287</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.47020365045533</v>
@@ -25714,7 +25654,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.426080616330778</v>
+        <v>1.413646621630563</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.372456473595896</v>
@@ -25803,7 +25743,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.429046479356865</v>
+        <v>1.419375430102062</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.577250366704354</v>
@@ -25892,7 +25832,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.453742713937867</v>
+        <v>1.443384631370966</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.351700805504848</v>
@@ -25981,7 +25921,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.451685559518588</v>
+        <v>1.437971690398546</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.376668142915417</v>
@@ -26070,7 +26010,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.454353180750421</v>
+        <v>1.438761603997614</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.305565382542071</v>
@@ -26159,7 +26099,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.440176576995261</v>
+        <v>1.422320968432298</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.470187504757111</v>
@@ -26248,7 +26188,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.429192708209421</v>
+        <v>1.409833357007151</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.438270484486087</v>
@@ -26337,7 +26277,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.433095792016825</v>
+        <v>1.417921519033976</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.372740155739318</v>
@@ -26426,7 +26366,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.440081498763639</v>
+        <v>1.425240635405578</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.294478144816442</v>
@@ -26515,7 +26455,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.446680275880098</v>
+        <v>1.431839533339283</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.353635249388067</v>
@@ -26604,7 +26544,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.43299593839445</v>
+        <v>1.425744295530291</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.233999665115025</v>
@@ -26693,7 +26633,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.454890229561723</v>
+        <v>1.449956865342264</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.336849502358233</v>
@@ -26782,7 +26722,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.474616912195979</v>
+        <v>1.474112053217225</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.486259158549267</v>
@@ -26871,7 +26811,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.497345098044956</v>
+        <v>1.488679280884497</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.191472714322788</v>
@@ -26960,7 +26900,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.493229286523277</v>
+        <v>1.497839009176895</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.373507861111661</v>
@@ -27049,7 +26989,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.497099008113838</v>
+        <v>1.497805517801817</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.314494811512317</v>
@@ -27138,7 +27078,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.492348263379531</v>
+        <v>1.485817011320697</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.367180051956246</v>
@@ -27227,7 +27167,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.463198361976018</v>
+        <v>1.468741273110646</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.347532309608223</v>
@@ -27316,7 +27256,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.464693000029438</v>
+        <v>1.470697543429491</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.480115994681832</v>
@@ -27405,7 +27345,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.470132648102875</v>
+        <v>1.47380717145947</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.520020001933998</v>
@@ -27494,7 +27434,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.500843917676583</v>
+        <v>1.501022881407869</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.700544825691872</v>
@@ -27583,7 +27523,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.500735873615136</v>
+        <v>1.507876186523585</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.4105243172936</v>
@@ -27672,7 +27612,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.499444976029868</v>
+        <v>1.500301339101975</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.582469036381672</v>
@@ -27761,7 +27701,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.462478565157666</v>
+        <v>1.463873100119641</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.448464566664911</v>
@@ -27850,7 +27790,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.449953799968716</v>
+        <v>1.455673094085882</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.369474181409379</v>
@@ -27939,7 +27879,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.468575847978249</v>
+        <v>1.468745911939565</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.2474310610949</v>
@@ -28028,7 +27968,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.471057669497062</v>
+        <v>1.470089544903329</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.44705831783132</v>
@@ -28117,7 +28057,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.445253084920763</v>
+        <v>1.439698082962543</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.465910114508689</v>
@@ -28206,7 +28146,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.454591636511782</v>
+        <v>1.447780170942688</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.462889973875928</v>
@@ -28295,7 +28235,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.437189698430134</v>
+        <v>1.428367462720295</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.366646391128043</v>
@@ -28384,7 +28324,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.43066256052379</v>
+        <v>1.426514958492233</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.500365210885031</v>
@@ -28473,7 +28413,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.432232338810463</v>
+        <v>1.423705980447138</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.310294699722558</v>
@@ -28562,7 +28502,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.415713700229847</v>
+        <v>1.409995280678898</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.399737093251464</v>
@@ -28651,7 +28591,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.413750560023633</v>
+        <v>1.410365622650473</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.293326502301359</v>
@@ -28740,7 +28680,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.416192483092188</v>
+        <v>1.415499301259539</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.394371555162742</v>
@@ -28829,7 +28769,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.409268859156235</v>
+        <v>1.407559721718456</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.472682628383586</v>
@@ -28918,7 +28858,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.421378845278161</v>
+        <v>1.417697254541553</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.275873315294729</v>
@@ -29007,7 +28947,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.424070198708471</v>
+        <v>1.423971536476663</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.410767139193768</v>
@@ -29096,7 +29036,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.452149722189445</v>
+        <v>1.450456384594841</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.336195256599289</v>
@@ -29185,7 +29125,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.423953100133778</v>
+        <v>1.417229547825653</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.246375136176457</v>
@@ -29274,7 +29214,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.42149463779439</v>
+        <v>1.416643726536546</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.267082583944962</v>
@@ -29363,7 +29303,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.419275673805668</v>
+        <v>1.410802865669783</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.28755102578481</v>
@@ -29452,7 +29392,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.440546961964321</v>
+        <v>1.438030292533564</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.124786649515445</v>
@@ -29541,7 +29481,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.443724436689056</v>
+        <v>1.44208106291171</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.290486782588584</v>
@@ -29630,7 +29570,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.433339052706261</v>
+        <v>1.428814857146215</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.339128788329327</v>
@@ -29719,7 +29659,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.423008987498538</v>
+        <v>1.415374282015735</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.190913592053132</v>
@@ -29808,7 +29748,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.43847082684932</v>
+        <v>1.424786092416056</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.014016503095765</v>
@@ -29897,7 +29837,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.399727078916957</v>
+        <v>1.395703471705773</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.195487340222813</v>
@@ -29986,7 +29926,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.403206677030018</v>
+        <v>1.39891028501902</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.234979312513981</v>
@@ -30075,7 +30015,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.394612051934694</v>
+        <v>1.385365856332715</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.232789560620881</v>
@@ -30164,7 +30104,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.407499823682152</v>
+        <v>1.39648415860494</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.180731910567436</v>
@@ -30450,7 +30390,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.34292563308785</v>
+        <v>1.352944250755382</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.329045054536645</v>
@@ -30539,7 +30479,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.340048645501387</v>
+        <v>1.353558662520585</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.181157552262652</v>
@@ -30628,7 +30568,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.361203364955965</v>
+        <v>1.378260502742645</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.172528002589474</v>
@@ -30717,7 +30657,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.390600063791301</v>
+        <v>1.409732230264913</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.236034005739616</v>
@@ -30806,7 +30746,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.431555669393558</v>
+        <v>1.452844158490193</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.191369766912616</v>
@@ -30895,7 +30835,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.461340287372418</v>
+        <v>1.484682231141941</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.362943431997463</v>
@@ -30984,7 +30924,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.443711877941912</v>
+        <v>1.469815136152683</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.387376894276175</v>
@@ -31073,7 +31013,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.493168790336417</v>
+        <v>1.518782249606793</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.430274703274651</v>
@@ -31162,7 +31102,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.487438047473205</v>
+        <v>1.511124458540083</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.182109831335961</v>
@@ -31251,7 +31191,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.49419000068786</v>
+        <v>1.517204791816094</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.40973059827216</v>
@@ -31340,7 +31280,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.522855316970952</v>
+        <v>1.545349028900538</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.333796728692037</v>
@@ -31429,7 +31369,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.492665969945917</v>
+        <v>1.515151123321772</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.312622608234011</v>
@@ -31518,7 +31458,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.496461268896103</v>
+        <v>1.518246273601131</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.404934271212665</v>
@@ -31607,7 +31547,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.50292225824941</v>
+        <v>1.521382230006693</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.250360665295222</v>
@@ -31696,7 +31636,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.530251572835141</v>
+        <v>1.547862566935538</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.36278310912547</v>
@@ -31785,7 +31725,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.525211176411141</v>
+        <v>1.538693969998757</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.22853566066924</v>
@@ -31874,7 +31814,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.508349265363443</v>
+        <v>1.530789866411878</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.243748628114479</v>
@@ -31963,7 +31903,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.48321943223494</v>
+        <v>1.507140619435615</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.405106018842369</v>
@@ -32052,7 +31992,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.46063018016325</v>
+        <v>1.471962384450813</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.431197568638143</v>
@@ -32141,7 +32081,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.396899840885266</v>
+        <v>1.420061181390293</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.554832125501656</v>
@@ -32230,7 +32170,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.372247771671279</v>
+        <v>1.397902000468313</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.582677127341385</v>
@@ -32319,7 +32259,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.372868112350627</v>
+        <v>1.397887123155937</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.507918643574785</v>
@@ -32408,7 +32348,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.355075285948276</v>
+        <v>1.380142915512586</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.493421058831932</v>
@@ -32497,7 +32437,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.350027099226507</v>
+        <v>1.376887278624475</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.489408248101428</v>
@@ -32586,7 +32526,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.336700662663122</v>
+        <v>1.363652083956025</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.496716363122546</v>
@@ -32675,7 +32615,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.325632580350027</v>
+        <v>1.354430724144079</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.587776688345167</v>
@@ -32764,7 +32704,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.328136294672274</v>
+        <v>1.357434946379739</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.501604482936108</v>
@@ -32853,7 +32793,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.314747144760159</v>
+        <v>1.34274530199745</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.476322742014305</v>
@@ -32942,7 +32882,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.292587066351749</v>
+        <v>1.320571801625949</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.510944183148816</v>
@@ -33031,7 +32971,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.273441253741869</v>
+        <v>1.294469028075452</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.670612349807391</v>
@@ -33120,7 +33060,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.294264350120487</v>
+        <v>1.315593822374497</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.69132049406744</v>
@@ -33209,7 +33149,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.295738119332764</v>
+        <v>1.311749059482277</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.561128034039276</v>
@@ -33298,7 +33238,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.280841958714492</v>
+        <v>1.301285433035269</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.549324226393608</v>
@@ -33387,7 +33327,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.287717947105653</v>
+        <v>1.310468260894924</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.547599292517101</v>
@@ -33476,7 +33416,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.295663642333532</v>
+        <v>1.321215788399812</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.541195397093791</v>
@@ -33565,7 +33505,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.319746062847518</v>
+        <v>1.343477760878284</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.272024694211312</v>
@@ -33654,7 +33594,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.332512373096571</v>
+        <v>1.358709850346657</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.618349792766445</v>
@@ -33743,7 +33683,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.352112087876038</v>
+        <v>1.375607522375218</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.540609173059301</v>
@@ -33832,7 +33772,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.35158668161146</v>
+        <v>1.376197725193201</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.334292631585163</v>
@@ -33921,7 +33861,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.36993044320321</v>
+        <v>1.395374888397672</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.710680743119473</v>
@@ -34010,7 +33950,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.371237115814185</v>
+        <v>1.395618669382695</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.721370165035621</v>
@@ -34099,7 +34039,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.387912652045163</v>
+        <v>1.412003578146882</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.420851539869086</v>
@@ -34188,7 +34128,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.402498890135391</v>
+        <v>1.425708210286554</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.472533264581143</v>
@@ -34277,7 +34217,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.414111435865903</v>
+        <v>1.436095877642418</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.470674032637743</v>
@@ -34366,7 +34306,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.454700376586541</v>
+        <v>1.480589057833849</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.573013949120873</v>
@@ -34455,7 +34395,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.434001800656409</v>
+        <v>1.459507107599742</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.428508520085441</v>
@@ -34544,7 +34484,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.445244756124583</v>
+        <v>1.469991078973136</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.322178845111603</v>
@@ -34633,7 +34573,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.455582707357602</v>
+        <v>1.479291886426173</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.242820512586966</v>
@@ -34722,7 +34662,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.460199022958816</v>
+        <v>1.483473685900339</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.214117253161572</v>
@@ -34811,7 +34751,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.472952905081186</v>
+        <v>1.492828508656541</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.482693594988134</v>
@@ -34900,7 +34840,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.470570145643193</v>
+        <v>1.489890118995354</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.469121344946249</v>
@@ -34989,7 +34929,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.429134582048838</v>
+        <v>1.45067909828325</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.528291636914018</v>
@@ -35078,7 +35018,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.442383646385416</v>
+        <v>1.462640917650779</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.220239750101712</v>
